--- a/BackTest/2020-01-16 BackTest MTL.xlsx
+++ b/BackTest/2020-01-16 BackTest MTL.xlsx
@@ -9724,10 +9724,14 @@
         <v>-635626.8209331399</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="J283" t="n">
+        <v>239.3</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
@@ -9757,11 +9761,19 @@
         <v>-634966.1815501999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="J284" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9802,19 @@
         <v>-637310.2815501998</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="J285" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9889,10 +9909,14 @@
         <v>-630887.6674501998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>240.5</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -9922,11 +9946,19 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="J289" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9987,19 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="J290" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,10 +10028,14 @@
         <v>-631339.3874501998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="J291" t="n">
+        <v>240.6</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -10021,11 +10065,19 @@
         <v>-628954.8810501999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="J292" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10106,19 @@
         <v>-627231.8906501998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="J293" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10219,10 +10279,14 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="J298" t="n">
+        <v>239.6</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
@@ -10252,11 +10316,19 @@
         <v>-651788.8890501999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="J299" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10357,19 @@
         <v>-658788.8890501999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="J300" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10326,7 +10406,11 @@
       <c r="J301" t="n">
         <v>239.6</v>
       </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10365,7 +10449,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -10406,7 +10490,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10447,7 +10531,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -11134,11 +11218,9 @@
         <v>-634948.5468839399</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
         <v>239.6</v>
       </c>
@@ -11175,11 +11257,9 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>239.6</v>
       </c>
@@ -11216,11 +11296,9 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
         <v>239.6</v>
       </c>
@@ -11257,11 +11335,9 @@
         <v>-612280.8101839399</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>239.6</v>
       </c>
@@ -11298,11 +11374,9 @@
         <v>-608565.8103839399</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>239.6</v>
       </c>
@@ -11339,11 +11413,9 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>245.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>239.6</v>
       </c>
@@ -11380,11 +11452,9 @@
         <v>-609171.8103839399</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>239.6</v>
       </c>
@@ -11421,11 +11491,9 @@
         <v>-608469.3034839398</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>239.6</v>
       </c>
@@ -11462,11 +11530,9 @@
         <v>-582595.3989839399</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>245.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>239.6</v>
       </c>
@@ -11503,11 +11569,9 @@
         <v>-585136.0664839399</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>245.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>239.6</v>
       </c>
@@ -11544,11 +11608,9 @@
         <v>-580432.8441839399</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>239.6</v>
       </c>
@@ -11585,11 +11647,9 @@
         <v>-574182.7507839398</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>245.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>239.6</v>
       </c>
@@ -11626,11 +11686,9 @@
         <v>-557883.0571839398</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>245.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>239.6</v>
       </c>
@@ -11667,11 +11725,9 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>246.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
         <v>239.6</v>
       </c>
@@ -11708,11 +11764,9 @@
         <v>-537787.9960839398</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>246.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
         <v>239.6</v>
       </c>
@@ -11749,11 +11803,9 @@
         <v>-493633.4647387498</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>246.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>239.6</v>
       </c>
@@ -15222,11 +15274,9 @@
         <v>-557389.1740323699</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>249.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
         <v>239.6</v>
       </c>
@@ -30083,7 +30133,7 @@
         <v>-247546.2722088095</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
@@ -30091,15 +30141,13 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L806" t="n">
-        <v>1.101010016694491</v>
-      </c>
-      <c r="M806" t="n">
-        <v>1.033613445378151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -30124,11 +30172,17 @@
         <v>-229076.3128088095</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30157,11 +30211,17 @@
         <v>-197610.9796583895</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30190,11 +30250,17 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30223,11 +30289,17 @@
         <v>-248129.3973253095</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30256,11 +30328,17 @@
         <v>-252105.2456952595</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -30289,11 +30367,17 @@
         <v>-246270.1436952595</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -30322,11 +30406,17 @@
         <v>-215961.4525952595</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30355,11 +30445,17 @@
         <v>-184060.6692952595</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -30388,11 +30484,17 @@
         <v>-186102.2371952595</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -30421,11 +30523,17 @@
         <v>-180736.2371952595</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -30454,11 +30562,17 @@
         <v>-187517.4560952595</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30487,11 +30601,17 @@
         <v>-205055.3905396095</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30520,11 +30640,17 @@
         <v>-193766.5337458595</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30553,11 +30679,17 @@
         <v>-178638.5498522895</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30586,11 +30718,17 @@
         <v>-143221.9436839595</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30619,11 +30757,17 @@
         <v>-120835.3439168095</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30652,11 +30796,17 @@
         <v>-147561.1477168095</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30685,11 +30835,17 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30718,11 +30874,17 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30751,11 +30913,17 @@
         <v>-135909.0263168095</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30784,11 +30952,17 @@
         <v>-135951.4564168095</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30817,11 +30991,17 @@
         <v>-146244.1419168095</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30850,11 +31030,17 @@
         <v>-131108.7270273594</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30883,11 +31069,17 @@
         <v>-163485.2403273594</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30916,11 +31108,17 @@
         <v>-98788.06802735943</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30949,11 +31147,17 @@
         <v>-47917.99272735944</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30982,11 +31186,17 @@
         <v>-29853.34502735944</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -31015,11 +31225,17 @@
         <v>19079.79107264057</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -31048,11 +31264,17 @@
         <v>89542.90417264057</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -31084,8 +31306,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -31117,8 +31345,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31150,8 +31384,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31180,15 +31420,23 @@
         <v>319134.6649556805</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
+        <v>1.222045075125209</v>
+      </c>
+      <c r="M839" t="n">
+        <v>1.033613445378151</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -31213,7 +31461,7 @@
         <v>460778.8483706205</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31246,7 +31494,7 @@
         <v>348605.0937365705</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31279,7 +31527,7 @@
         <v>254427.8206365705</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31312,7 +31560,7 @@
         <v>222849.0549957905</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31345,7 +31593,7 @@
         <v>246637.5998957905</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31378,7 +31626,7 @@
         <v>271353.4197957905</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31411,7 +31659,7 @@
         <v>321668.7951925205</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31444,7 +31692,7 @@
         <v>283649.9541963905</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31477,7 +31725,7 @@
         <v>269695.1476418105</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31510,7 +31758,7 @@
         <v>304280.1289418105</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31543,7 +31791,7 @@
         <v>288124.9432418105</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31576,7 +31824,7 @@
         <v>304159.9855418105</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31609,7 +31857,7 @@
         <v>268225.8968516404</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31642,7 +31890,7 @@
         <v>252213.5986516404</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
